--- a/output_reports/Титановые_основы_01.01-01.02.xlsx
+++ b/output_reports/Титановые_основы_01.01-01.02.xlsx
@@ -43,7 +43,7 @@
       <sz val="8"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -63,6 +63,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF99"/>
       </patternFill>
     </fill>
     <fill>
@@ -225,7 +230,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -262,12 +267,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -288,8 +293,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -301,7 +306,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" pivotButton="0" quotePrefix="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -53218,7 +53226,7 @@
           <t>3.0</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="E12" s="38" t="inlineStr">
         <is>
           <t>38779 ТО LM Step (GEO) BioHorizons 3.0 full G/H=0.8 H=3.8 с позиционером (арт. LS2-BH30-H) V.1 / / БЕЗ ВИНТА</t>
         </is>
@@ -53294,7 +53302,7 @@
           <t>3.0</t>
         </is>
       </c>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="E13" s="38" t="inlineStr">
         <is>
           <t>38779Н ТО LM TiN Step (GEO) BioHorizons 3.0 full G/H=0.8 H=3.8 с позиционером (арт. LS2-BH30-H) V.1.A / / БЕЗ ВИНТА</t>
         </is>
@@ -53394,7 +53402,7 @@
           <t>RP</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="E15" s="38" t="inlineStr">
         <is>
           <t>38781 ТО LM Step (GEO) DIO SM RP (4.5) full G/H=0.8 H=3.75 с позиционером (арт. LS2-DSMR-T) V.1 / / БЕЗ ВИНТА</t>
         </is>
@@ -53470,7 +53478,7 @@
           <t>RP</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
+      <c r="E16" s="38" t="inlineStr">
         <is>
           <t>38781Н ТО LM TiN Step (GEO) DIO SM RP (4.5) full G/H=0.8 H=3.75 с позиционером (арт. LS2-DSMR-T) V.1.A / / БЕЗ ВИНТА</t>
         </is>
@@ -53670,7 +53678,7 @@
           <t>--</t>
         </is>
       </c>
-      <c r="E20" s="3" t="inlineStr">
+      <c r="E20" s="38" t="inlineStr">
         <is>
           <t>38711 ТО LM Step (GEO) MegaGen AnyRidge full G/H=1.4 H=3.8 с позиционером (арт. LS2-MARR-H) V.1 / / БЕЗ ВИНТА</t>
         </is>
@@ -53946,7 +53954,7 @@
           <t>3.5</t>
         </is>
       </c>
-      <c r="E25" s="10" t="inlineStr">
+      <c r="E25" s="39" t="inlineStr">
         <is>
           <t>38735 ТО LM Step (GEO) Nobel Replace Select 3.5 full G/H=0.6 H=3.8 с позиционером (арт. LS2-RPM-E) V.1 / / БЕЗ ВИНТА</t>
         </is>
@@ -54022,7 +54030,7 @@
           <t>3.5</t>
         </is>
       </c>
-      <c r="E26" s="14" t="inlineStr">
+      <c r="E26" s="40" t="inlineStr">
         <is>
           <t>38735Н ТО LM TiN Step (GEO) Nobel Replace Select 3.5 full G/H=0.6 H=3.8 с позиционером (арт. LS2-RPM-E) V.1.A / / БЕЗ ВИНТА</t>
         </is>
@@ -54250,7 +54258,7 @@
           <t>5.0</t>
         </is>
       </c>
-      <c r="E29" s="10" t="inlineStr">
+      <c r="E29" s="39" t="inlineStr">
         <is>
           <t>38737 ТО LM Step (GEO) Nobel Replace Select 5.0 full G/H=0.6 H=3.8 с позиционером (арт. LS2-RPW-E) V.1 / / БЕЗ ВИНТА</t>
         </is>
@@ -54326,7 +54334,7 @@
           <t>5.0</t>
         </is>
       </c>
-      <c r="E30" s="14" t="inlineStr">
+      <c r="E30" s="40" t="inlineStr">
         <is>
           <t>38737Н ТО LM TiN Step (GEO) Nobel Replace Select 5.0 full G/H=0.6 H=3.8 с позиционером (арт. LS2-RPW-E) V.1.A / / БЕЗ ВИНТА</t>
         </is>
@@ -54982,7 +54990,7 @@
           <t>4.5</t>
         </is>
       </c>
-      <c r="E40" s="10" t="inlineStr">
+      <c r="E40" s="39" t="inlineStr">
         <is>
           <t>38755 ТО LM Step (GEO) Zimmer 4.5 full G/H=0.4 H=3.8 с позиционером (арт. LS2-TSV4-H) V.1 / / БЕЗ ВИНТА</t>
         </is>
@@ -55058,7 +55066,7 @@
           <t>4.5</t>
         </is>
       </c>
-      <c r="E41" s="14" t="inlineStr">
+      <c r="E41" s="40" t="inlineStr">
         <is>
           <t>38755Н ТО LM TiN Step (GEO) Zimmer 4.5 full G/H=0.4 H=3.8 с позиционером (арт. LS2-TSV4-H) V.1.A / / БЕЗ ВИНТА</t>
         </is>
@@ -55467,7 +55475,7 @@
           <t>RS</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="38" t="inlineStr">
         <is>
           <t>38625 ТО LM Step (ARUM) Adin RS (3.5/3.75/4.2/5.0/6.0) full G/H=0.5 H=4 с позиционером (арт. Ti_168) V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -55543,7 +55551,7 @@
           <t>RS</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="38" t="inlineStr">
         <is>
           <t>38626 ТО LM Step (ARUM) Adin RS (3.5/3.75/4.2/5.0/6.0) bridge G/H=0.5 H=4 без позиционера (арт. Ti_598_NH) V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -55643,7 +55651,7 @@
           <t>NP</t>
         </is>
       </c>
-      <c r="E10" s="10" t="inlineStr">
+      <c r="E10" s="39" t="inlineStr">
         <is>
           <t>38621 ТО LM Step (ARUM) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=0.5 H=4 с позиционером (арт. Ti_090) V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -55719,7 +55727,7 @@
           <t>NP</t>
         </is>
       </c>
-      <c r="E11" s="14" t="inlineStr">
+      <c r="E11" s="40" t="inlineStr">
         <is>
           <t>38622 ТО LM Step (ARUM) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=0.5 H=4 без позиционера (арт. Ti_341_NH) V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -55871,7 +55879,7 @@
           <t>RP</t>
         </is>
       </c>
-      <c r="E13" s="14" t="inlineStr">
+      <c r="E13" s="40" t="inlineStr">
         <is>
           <t>38624 ТО LM Step (ARUM) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=0.5 H=4 без позиционера (арт. Ti_343_NH) V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -55971,7 +55979,7 @@
           <t>3.5</t>
         </is>
       </c>
-      <c r="E15" s="10" t="inlineStr">
+      <c r="E15" s="39" t="inlineStr">
         <is>
           <t>38606 ТО LM Step (ARUM) Nobel Replace Select 3.5 full G/H=0.4 H=4 с позиционером (арт. Ti_082) V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -56123,7 +56131,7 @@
           <t>4.3</t>
         </is>
       </c>
-      <c r="E17" s="10" t="inlineStr">
+      <c r="E17" s="39" t="inlineStr">
         <is>
           <t>38608 ТО LM Step (ARUM) Nobel Replace Select 4.3 full G/H=0.4 H=4 с позиционером (арт. Ti_084) V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -56299,7 +56307,7 @@
           <t>Mini</t>
         </is>
       </c>
-      <c r="E20" s="3" t="inlineStr">
+      <c r="E20" s="38" t="inlineStr">
         <is>
           <t>38617 ТО LM Step (ARUM) Osstem Implant Mini (3.5) full G/H=0.7 H=4 с позиционером (арт. Ti_029) V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -56375,7 +56383,7 @@
           <t>Mini</t>
         </is>
       </c>
-      <c r="E21" s="3" t="inlineStr">
+      <c r="E21" s="38" t="inlineStr">
         <is>
           <t>38618 ТО LM Step (ARUM) Osstem Implant Mini (3.5) bridge G/H=0.7 H=4 без позиционера (арт. Ti_031_NH) V.1 / БЕЗ ВИНТА</t>
         </is>
